--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1888102050394312</v>
+        <v>0.1857345070153625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5828555409646361</v>
+        <v>0.5722716922221133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7585843897347772</v>
+        <v>0.7492303691345964</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1857345070153625</v>
+        <v>0.1881670338263605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5722716922221133</v>
+        <v>0.5808692963017932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7492303691345964</v>
+        <v>0.7558885757594144</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/30 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1881670338263605</v>
+        <v>0.185927082848468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5808692963017932</v>
+        <v>0.5732006840597478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7558885757594144</v>
+        <v>0.7490355452062186</v>
       </c>
     </row>
     <row r="12">
